--- a/biology/Zoologie/Alburnus_danubicus/Alburnus_danubicus.xlsx
+++ b/biology/Zoologie/Alburnus_danubicus/Alburnus_danubicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus danubicus est une espèce de poisson d'eau douce de la famille des Cyprinidae désormais éteinte. Elle n'est connue que par deux spécimens prélevés en 1909 et 1943[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus danubicus est une espèce de poisson d'eau douce de la famille des Cyprinidae désormais éteinte. Elle n'est connue que par deux spécimens prélevés en 1909 et 1943.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus danubicus se rencontrait dans les lacs côtiers et dans le Danube en Roumanie et Bulgarie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus danubicus se rencontrait dans les lacs côtiers et dans le Danube en Roumanie et Bulgarie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description originale, l'auteur indique que cette espèce mesure en moyenne 220 à 250 mm[4]. En revanche FishBase indique une taille maximale de seulement 200 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description originale, l'auteur indique que cette espèce mesure en moyenne 220 à 250 mm. En revanche FishBase indique une taille maximale de seulement 200 mm.
 Elle est décrite au départ comme une sous-espèce de Alburnus chalcoides.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'auteur indique que cette espèce était appelée localement Obleti mari ou Obleti de mare[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur indique que cette espèce était appelée localement Obleti mari ou Obleti de mare.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Antipa, 1909 : Fauna ichtiologica a României. Academia Româna, vol. 3, n. 16 (texte intégral).</t>
         </is>
